--- a/easyexcel-test/src/test/resources/demo/fill/formula3.xlsx
+++ b/easyexcel-test/src/test/resources/demo/fill/formula3.xlsx
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="2"/>
